--- a/docs/21-07-23 Gestion de inventarios al de filtros.xlsx
+++ b/docs/21-07-23 Gestion de inventarios al de filtros.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Inventarios 2023\Filtros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Servidor\htdocs\Proyectos\PHP\DisbatteryApp\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D932F87-0667-4BC2-9848-6919A711D323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Recepcion de Producto" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Balance de Inventarios'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'Formato de inventario ciclico'!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Denis Orta</author>
     <author>Duglas Ledezma</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{65C77FE6-05EB-4472-A422-BDFF37250D28}">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="1" shapeId="0" xr:uid="{EAFEFB67-D755-4546-864F-61622C6C5AA7}">
+    <comment ref="O18" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="1" shapeId="0" xr:uid="{10CCE70E-6BC7-49D2-B797-221026858ACE}">
+    <comment ref="O20" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="1" shapeId="0" xr:uid="{77AD5390-572F-4A1C-A240-AB397044F213}">
+    <comment ref="O31" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="1" shapeId="0" xr:uid="{FA550A19-79D8-4CE7-8486-EF83229E30C0}">
+    <comment ref="O43" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="1" shapeId="0" xr:uid="{AE98527B-BE00-449A-8B0B-96FB944A7518}">
+    <comment ref="O49" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="1" shapeId="0" xr:uid="{D9C6568F-545D-4CFD-8276-894F05D8BB23}">
+    <comment ref="O50" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R72" authorId="1" shapeId="0" xr:uid="{A7B05E5C-45A5-450A-BB65-AB9EC8401821}">
+    <comment ref="R72" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -245,12 +244,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nesrely Rodríguez</author>
   </authors>
   <commentList>
-    <comment ref="BS18" authorId="0" shapeId="0" xr:uid="{E5A7BFD8-AB4E-45C1-BE1B-F0ACC88EC761}">
+    <comment ref="BS18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS20" authorId="0" shapeId="0" xr:uid="{95C225A9-F4A0-4FA7-8A89-B2AD90C52202}">
+    <comment ref="BS20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA74" authorId="0" shapeId="0" xr:uid="{6936E144-21EB-44D9-94D6-8A4110F17BC8}">
+    <comment ref="CA74" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -322,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY80" authorId="0" shapeId="0" xr:uid="{2A1C3FF9-AA39-44B7-8AE7-4C962ADBF875}">
+    <comment ref="CY80" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO86" authorId="0" shapeId="0" xr:uid="{BDD559B3-6408-4063-A7A8-0DCFAC027C45}">
+    <comment ref="CO86" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CO89" authorId="0" shapeId="0" xr:uid="{A5988FC5-387D-4682-BFD4-CD66E92532B3}">
+    <comment ref="CO89" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -394,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CY100" authorId="0" shapeId="0" xr:uid="{C3E05CAD-4725-4B62-A4D7-3FA4A862B1D7}">
+    <comment ref="CY100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -423,14 +422,14 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Daniel Lugo</author>
     <author>Nesrely Rodríguez</author>
     <author>Denis Orta</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{5C5580DD-A527-4D33-B75A-FF555DF279F2}">
+    <comment ref="I3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="1" shapeId="0" xr:uid="{EECFC14D-A9AD-41FB-9A87-2948DCDAEF89}">
+    <comment ref="L3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -478,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{0BC9824A-CCBB-459C-8F94-966E253429A9}">
+    <comment ref="M3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{4239F5FE-2D28-4087-8C20-6EC723833287}">
+    <comment ref="N3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W45" authorId="2" shapeId="0" xr:uid="{7FF6C132-116E-4457-8241-2977C7B6D1C8}">
+    <comment ref="W45" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X45" authorId="2" shapeId="0" xr:uid="{BD4F4DBC-DC50-41DB-AD6D-86759CC6C089}">
+    <comment ref="X45" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2587,7 +2586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -3359,14 +3358,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3386,8 +3379,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3858,15 +3857,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Hoja1" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T89" sqref="T89"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,10 +4007,10 @@
       </c>
       <c r="W3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>39</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="2:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="2:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>35</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:25" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
@@ -4263,7 +4262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>40</v>
       </c>
@@ -4303,7 +4302,7 @@
       </c>
       <c r="Y10" s="4"/>
     </row>
-    <row r="11" spans="2:25" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="2:25" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>102</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>372</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="2:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>356</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="2:25" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>104</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:25" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:25" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>103</v>
       </c>
@@ -4525,7 +4524,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>99</v>
       </c>
@@ -4564,7 +4563,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>101</v>
       </c>
@@ -4607,7 +4606,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="2:26" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="42" t="s">
         <v>41</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>42</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="2:26" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:26" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:26" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="26" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>506</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>68</v>
       </c>
@@ -4978,7 +4977,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>70</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>71</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>72</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="2:26" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>65</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
@@ -5198,7 +5197,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>224</v>
       </c>
@@ -5233,7 +5232,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
@@ -5270,7 +5269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>77</v>
       </c>
@@ -5381,7 +5380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5417,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>225</v>
       </c>
@@ -5453,7 +5452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
@@ -5490,7 +5489,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>66</v>
       </c>
@@ -5527,7 +5526,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="43" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>67</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>80</v>
       </c>
@@ -5603,7 +5602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>81</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
@@ -5677,7 +5676,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="49" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
@@ -5788,7 +5787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>86</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="2:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
         <v>226</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>227</v>
       </c>
@@ -5895,7 +5894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="42" t="s">
         <v>384</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="42" t="s">
         <v>385</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="42" t="s">
         <v>390</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="42" t="s">
         <v>389</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="42" t="s">
         <v>386</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="42" t="s">
         <v>359</v>
       </c>
@@ -6105,7 +6104,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="59" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="42" t="s">
         <v>375</v>
       </c>
@@ -6142,7 +6141,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" s="42" t="s">
         <v>374</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="42" t="s">
         <v>364</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="42" t="s">
         <v>383</v>
       </c>
@@ -6247,7 +6246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="42" t="s">
         <v>387</v>
       </c>
@@ -6282,7 +6281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" s="42" t="s">
         <v>388</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" s="42" t="s">
         <v>361</v>
       </c>
@@ -6352,7 +6351,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" s="42" t="s">
         <v>363</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="67" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" s="42" t="s">
         <v>362</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" s="42" t="s">
         <v>373</v>
       </c>
@@ -6461,7 +6460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" s="42" t="s">
         <v>360</v>
       </c>
@@ -6496,7 +6495,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" s="42" t="s">
         <v>106</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="71" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" s="42" t="s">
         <v>105</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" s="42" t="s">
         <v>358</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
@@ -6656,7 +6655,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="74" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
         <v>29</v>
       </c>
@@ -6703,7 +6702,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="75" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6750,7 +6749,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>31</v>
       </c>
@@ -6797,7 +6796,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="77" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="78" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>109</v>
       </c>
@@ -6885,7 +6884,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="79" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>13</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="80" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>108</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="81" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>16</v>
       </c>
@@ -7020,7 +7019,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="82" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>17</v>
       </c>
@@ -7069,7 +7068,7 @@
         <v>7427</v>
       </c>
     </row>
-    <row r="83" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>18</v>
       </c>
@@ -7114,7 +7113,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="84" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" s="2" t="s">
         <v>19</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="85" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
@@ -7200,7 +7199,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="86" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B86" s="2" t="s">
         <v>20</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="87" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B87" s="2" t="s">
         <v>22</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="88" spans="2:23" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2" t="s">
         <v>23</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>7243</v>
       </c>
     </row>
-    <row r="90" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B90" s="2" t="s">
         <v>26</v>
       </c>
@@ -7431,7 +7430,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="91" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B91" s="2" t="s">
         <v>25</v>
       </c>
@@ -7472,7 +7471,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="92" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B92" s="2" t="s">
         <v>382</v>
       </c>
@@ -7507,7 +7506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B93" s="2" t="s">
         <v>367</v>
       </c>
@@ -7542,7 +7541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
         <v>366</v>
       </c>
@@ -7577,7 +7576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B95" s="2" t="s">
         <v>381</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="2:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B96" s="2" t="s">
         <v>371</v>
       </c>
@@ -7649,7 +7648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B97" s="2" t="s">
         <v>379</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B98" s="2" t="s">
         <v>355</v>
       </c>
@@ -7721,7 +7720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="52"/>
       <c r="B99" s="2" t="s">
         <v>368</v>
@@ -7757,7 +7756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="2" t="s">
         <v>378</v>
@@ -7793,7 +7792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="2" t="s">
         <v>376</v>
@@ -7829,7 +7828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="2" t="s">
         <v>380</v>
@@ -7865,7 +7864,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="2" t="s">
         <v>377</v>
@@ -7901,7 +7900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B104" s="2" t="s">
         <v>369</v>
       </c>
@@ -7936,7 +7935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
         <v>27</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B106" s="2" t="s">
         <v>370</v>
       </c>
@@ -8012,7 +8011,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B107" s="2" t="s">
         <v>28</v>
       </c>
@@ -8053,7 +8052,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B108" s="2" t="s">
         <v>21</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>11</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="110" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>32</v>
       </c>
@@ -8188,7 +8187,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>507</v>
       </c>
@@ -8229,16 +8228,6 @@
       <c r="V112"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:W111" xr:uid="{CAC2D902-20DE-47F3-B309-4D5757EC6DF5}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="QL-4967"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B4:W111">
-      <sortCondition ref="C3:C109"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -8246,7 +8235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:DH111"/>
   <sheetViews>
@@ -8254,7 +8243,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="CV93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CY100" sqref="CY100"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8902,7 +8891,7 @@
       <c r="DG3" s="56"/>
       <c r="DH3" s="56">
         <f ca="1">TODAY()</f>
-        <v>45121</v>
+        <v>45126</v>
       </c>
     </row>
     <row r="4" spans="2:112" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -27322,11 +27311,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:DH111" xr:uid="{25C77664-ED33-4F20-820B-005276665898}">
-    <sortState ref="B4:DH111">
-      <sortCondition ref="C3:C109"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -27334,7 +27318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -27344,7 +27328,7 @@
       <pane xSplit="8" ySplit="3" topLeftCell="X4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35404,11 +35388,6 @@
       <c r="T118" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:AA111" xr:uid="{B0BBBF7A-C439-4E00-8DC5-8C68BDAFD347}">
-    <sortState ref="B4:Z111">
-      <sortCondition ref="C3:C109"/>
-    </sortState>
-  </autoFilter>
   <conditionalFormatting sqref="AB27:AC44">
     <cfRule type="cellIs" dxfId="14" priority="45" operator="greaterThan">
       <formula>0</formula>
@@ -35473,20 +35452,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324D388C-9679-4142-8975-AF401646EF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="45" customWidth="1"/>
     <col min="3" max="3" width="18" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.140625" style="45" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" style="45" bestFit="1" customWidth="1"/>
@@ -47544,13 +47523,12 @@
       <c r="J587" s="50"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K543" xr:uid="{63179383-6701-4921-BAA4-47718D192F69}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A68165B-24AE-4764-9AD6-32EDF1F4BCEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E40"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -48104,7 +48082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174FC11D-F5AC-4196-8AF6-D557158D84BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -48125,10 +48103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="107" t="s">
+      <c r="G1" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="107"/>
+      <c r="H1" s="98"/>
     </row>
     <row r="2" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -48137,12 +48115,12 @@
       <c r="E2" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="2:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -48151,8 +48129,8 @@
       <c r="E4" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48165,11 +48143,11 @@
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="101"/>
       <c r="H6" s="29" t="s">
         <v>59</v>
       </c>
@@ -48184,9 +48162,9 @@
       <c r="D7" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="106"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="104"/>
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -49174,35 +49152,44 @@
       <c r="D73" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="E73" s="98"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="100"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="107"/>
       <c r="H73" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="G1:H4"/>
@@ -49219,37 +49206,28 @@
     <mergeCell ref="E34:G34"/>
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -49257,7 +49235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEE7879-7B66-4439-959E-7868070F3E42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
